--- a/god of career.xlsx
+++ b/god of career.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\GOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C139F5A5-BBB9-4D8E-A6BF-55A9FE503323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E9B88D-97EA-416B-9076-8189409EDF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="技能列表" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,10 +179,6 @@
   </si>
   <si>
     <t>属性占比：学习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一封100字英文邮件，一篇1000字英文文档，一篇1万字英文文献，5本英文著作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -575,7 +571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF877C21-AEFE-4B29-9140-BF30E780B377}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
@@ -600,7 +596,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>41</v>
@@ -629,7 +625,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" s="1">
         <v>10</v>
@@ -641,19 +637,19 @@
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C3" s="2"/>
       <c r="D3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
       <c r="D4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -825,34 +821,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F547867A-EAB1-43CF-A2BC-B9500E7A846E}">
-  <dimension ref="D1:G3"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
